--- a/개발자들_출석.xlsx
+++ b/개발자들_출석.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\judongseok\Desktop\　\개발자들\2018 개발자들\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA086A94-1910-4234-97C5-737462E876EE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3511D468-32B4-445A-8488-29B9600321D2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9564" xr2:uid="{AAB3BD57-2F31-41FD-B4AC-9C9EE18BE3B9}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9564" xr2:uid="{AAB3BD57-2F31-41FD-B4AC-9C9EE18BE3B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -649,7 +649,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -720,7 +720,7 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -742,7 +742,7 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -764,7 +764,7 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -786,7 +786,7 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -808,7 +808,7 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -830,7 +830,7 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -852,7 +852,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -874,7 +874,7 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -896,7 +896,7 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -920,7 +920,7 @@
       <c r="C11" s="6">
         <v>1000</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -942,7 +942,9 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="6">
+        <v>1000</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -966,7 +968,7 @@
         <v>1000</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -988,7 +990,7 @@
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1010,7 +1012,7 @@
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1032,7 +1034,7 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="1"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1054,7 +1056,7 @@
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1076,7 +1078,7 @@
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1098,7 +1100,7 @@
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1122,7 +1124,7 @@
         <v>5000</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1144,7 +1146,9 @@
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="6">
+        <v>1000</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>

--- a/개발자들_출석.xlsx
+++ b/개발자들_출석.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\judongseok\Desktop\　\개발자들\2018 개발자들\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3511D468-32B4-445A-8488-29B9600321D2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2386137-5F47-42AA-A5DC-53E7AE1A0790}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9564" xr2:uid="{AAB3BD57-2F31-41FD-B4AC-9C9EE18BE3B9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9564" xr2:uid="{AAB3BD57-2F31-41FD-B4AC-9C9EE18BE3B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -649,7 +649,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -721,8 +721,8 @@
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -743,8 +743,8 @@
       <c r="B3" s="7"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -765,8 +765,8 @@
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -787,8 +787,10 @@
       <c r="B5" s="5"/>
       <c r="C5" s="7"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="6">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="7"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -809,8 +811,8 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -831,8 +833,8 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -853,8 +855,8 @@
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -875,8 +877,8 @@
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -897,8 +899,8 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -921,8 +923,8 @@
         <v>1000</v>
       </c>
       <c r="D11" s="7"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -945,8 +947,8 @@
       <c r="D12" s="6">
         <v>1000</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -969,8 +971,8 @@
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -991,8 +993,8 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1013,8 +1015,8 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1035,8 +1037,8 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1057,8 +1059,8 @@
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1079,8 +1081,8 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1101,8 +1103,8 @@
       <c r="B19" s="5"/>
       <c r="C19" s="7"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="7"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1125,8 +1127,8 @@
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1149,8 +1151,8 @@
       <c r="D21" s="6">
         <v>1000</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>

--- a/개발자들_출석.xlsx
+++ b/개발자들_출석.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\judongseok\Desktop\　\개발자들\2018 개발자들\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2386137-5F47-42AA-A5DC-53E7AE1A0790}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC4566D-DE85-4818-AB04-64B6B79B87DE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9564" xr2:uid="{AAB3BD57-2F31-41FD-B4AC-9C9EE18BE3B9}"/>
   </bookViews>
@@ -304,7 +304,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -327,6 +327,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -649,7 +652,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -723,7 +726,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="1"/>
+      <c r="G2" s="5"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -745,7 +748,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="5"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -767,7 +770,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="5"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -791,7 +794,7 @@
         <v>1000</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -813,7 +816,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -835,7 +838,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -857,7 +860,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -879,7 +882,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -901,7 +904,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -925,7 +928,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -949,7 +952,7 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -973,7 +976,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -995,7 +998,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="5"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1017,7 +1020,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1039,7 +1042,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1061,7 +1064,7 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="5"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1083,7 +1086,7 @@
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1105,7 +1108,9 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="6">
+        <v>1000</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1129,7 +1134,9 @@
       <c r="D20" s="7"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="7">
+        <v>5000</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1153,7 +1160,7 @@
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="5"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>

--- a/개발자들_출석.xlsx
+++ b/개발자들_출석.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\judongseok\Desktop\　\개발자들\2018 개발자들\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC4566D-DE85-4818-AB04-64B6B79B87DE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574E4426-30C5-4344-8B1C-D5E753E9CAC9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9564" xr2:uid="{AAB3BD57-2F31-41FD-B4AC-9C9EE18BE3B9}"/>
   </bookViews>
@@ -652,7 +652,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -727,7 +727,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="1"/>
+      <c r="H2" s="5"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -749,7 +749,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="1"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -771,7 +771,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="7"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -795,7 +795,7 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="5"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -817,7 +817,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="7"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -839,7 +839,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="7"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -905,7 +905,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="5"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -929,7 +929,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="5"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -953,7 +953,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="5"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -977,7 +977,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="7"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="5"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -999,7 +999,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="5"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1021,7 +1021,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="5"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1043,7 +1043,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="5"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1087,7 +1087,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="5"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1111,7 +1111,7 @@
       <c r="G19" s="6">
         <v>1000</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="5"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1137,7 +1137,7 @@
       <c r="G20" s="7">
         <v>5000</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="5"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1161,7 +1161,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="7"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="5"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>

--- a/개발자들_출석.xlsx
+++ b/개발자들_출석.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\judongseok\Desktop\　\개발자들\2018 개발자들\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574E4426-30C5-4344-8B1C-D5E753E9CAC9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F75FAD2-BD0B-4EB0-A44B-79175B8BB34F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9564" xr2:uid="{AAB3BD57-2F31-41FD-B4AC-9C9EE18BE3B9}"/>
   </bookViews>
@@ -652,7 +652,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -728,7 +728,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="1"/>
+      <c r="I2" s="5"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -750,7 +750,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="1"/>
+      <c r="I3" s="5"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -772,7 +772,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="6"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="1"/>
+      <c r="I4" s="7"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -796,7 +796,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="1"/>
+      <c r="I5" s="7"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -818,7 +818,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="5"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -840,7 +840,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="5"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -861,8 +861,8 @@
       <c r="E8" s="6"/>
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="5"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -883,8 +883,8 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="5"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -906,7 +906,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="5"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -930,7 +930,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="7"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -954,7 +954,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="5"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -978,7 +978,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="7"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1000,7 +1000,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1022,7 +1022,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1044,7 +1044,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1065,8 +1065,8 @@
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="5"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1088,7 +1088,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="8"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="1"/>
+      <c r="I18" s="5"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1112,7 +1112,7 @@
         <v>1000</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="1"/>
+      <c r="I19" s="5"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1138,7 +1138,7 @@
         <v>5000</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="5"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1162,7 +1162,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="1"/>
+      <c r="I21" s="7"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>

--- a/개발자들_출석.xlsx
+++ b/개발자들_출석.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\judongseok\Desktop\　\개발자들\2018 개발자들\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F75FAD2-BD0B-4EB0-A44B-79175B8BB34F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40443DA-5EA4-4FC2-A1E7-B71EB090C7B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9564" xr2:uid="{AAB3BD57-2F31-41FD-B4AC-9C9EE18BE3B9}"/>
   </bookViews>
@@ -651,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA74D26-CD7D-479D-8A2A-94EC3FAA8DAA}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -729,7 +729,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="1"/>
+      <c r="J2" s="5"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -751,7 +751,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="1"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -773,7 +773,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="1"/>
+      <c r="J4" s="7"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -797,7 +797,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="1"/>
+      <c r="J5" s="6"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -819,7 +819,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="7"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="5"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -841,7 +841,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="1"/>
+      <c r="J7" s="5"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -863,7 +863,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="5"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -885,7 +885,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="7"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="7"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -907,7 +907,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="5"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -931,7 +931,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="5"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="6"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -955,7 +955,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="1"/>
+      <c r="J12" s="5"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -979,7 +979,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="1"/>
+      <c r="J13" s="5"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -1001,7 +1001,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="1"/>
+      <c r="J14" s="5"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1023,7 +1023,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="1"/>
+      <c r="J15" s="5"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1045,7 +1045,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="1"/>
+      <c r="J16" s="5"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -1067,7 +1067,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="7"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="1"/>
+      <c r="J17" s="5"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1089,7 +1089,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="1"/>
+      <c r="J18" s="5"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="1"/>
+      <c r="J19" s="5"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="1"/>
+      <c r="J20" s="5"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -1163,7 +1163,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="1"/>
+      <c r="J21" s="5"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
